--- a/cmds/goprocmds/v1/AEON.xlsx
+++ b/cmds/goprocmds/v1/AEON.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>i_AnnualIncome</t>
   </si>
@@ -122,18 +122,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
-    <t>2.054s</t>
-  </si>
-  <si>
-    <t>2.097s</t>
-  </si>
-  <si>
-    <t>2.119s</t>
   </si>
 </sst>
 </file>
@@ -474,7 +462,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:X5"/>
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -562,9 +550,6 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="2">
@@ -633,9 +618,6 @@
       <c r="V2">
         <v>37680</v>
       </c>
-      <c r="W2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="2">
@@ -704,9 +686,6 @@
       <c r="V3">
         <v>36507</v>
       </c>
-      <c r="W3" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="2">
@@ -774,9 +753,6 @@
       </c>
       <c r="V4">
         <v>29278</v>
-      </c>
-      <c r="W4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
